--- a/MDS 561/Florida Project Data 1st Iteration.xlsx
+++ b/MDS 561/Florida Project Data 1st Iteration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/886d1fcb0e1fdeb1/Documents/GitHub/DataScienceProjects/MDS 561/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{DE0EABDA-8300-4043-926D-FEA4E568EF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9A328D77-E5E6-417F-934A-0F2EB3390CB5}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{DE0EABDA-8300-4043-926D-FEA4E568EF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC98AE45-F6E0-4D80-B735-853E4B8B07B9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B0AAE735-983E-4AB1-B980-C6F52A4E48D5}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="397">
   <si>
     <t>6 to 88</t>
   </si>
@@ -1240,6 +1240,12 @@
   <si>
     <t>Miami-Dade</t>
   </si>
+  <si>
+    <t>_Deaths_Per_100k</t>
+  </si>
+  <si>
+    <t>_Positives_Per_100k</t>
+  </si>
 </sst>
 </file>
 
@@ -1287,7 +1293,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1345,8 +1357,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="3" xr16:uid="{06A58E71-C6A2-4E7A-87E6-8AD91DB9FAA6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="129">
-    <queryTableFields count="110">
+  <queryTableRefresh nextId="131" unboundColumnsRight="2">
+    <queryTableFields count="112">
       <queryTableField id="89" name="FID" tableColumnId="89"/>
       <queryTableField id="90" name="OBJECTID_12_13" tableColumnId="90"/>
       <queryTableField id="91" name="DEPCODE" tableColumnId="91"/>
@@ -1457,6 +1469,8 @@
       <queryTableField id="113" name="Florida Census By County Data - Original.TOT_MIXED_RACE_FEMALE" tableColumnId="113"/>
       <queryTableField id="114" name="Florida Census By County Data - Original.TOT_H_MALE" tableColumnId="114"/>
       <queryTableField id="115" name="Florida Census By County Data - Original.TOT_H_FEMALE" tableColumnId="115"/>
+      <queryTableField id="129" dataBound="0" tableColumnId="6"/>
+      <queryTableField id="130" dataBound="0" tableColumnId="94"/>
     </queryTableFields>
     <queryTableDeletedFields count="9">
       <deletedField name="FID"/>
@@ -1604,22 +1618,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{755B42EC-6335-4A81-AC2E-0D73012A175B}" name="Join_Tables" displayName="Join_Tables" ref="A1:DF69" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:DF69" xr:uid="{614BD53E-D727-4FBD-9650-A46FA3EA31B6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{755B42EC-6335-4A81-AC2E-0D73012A175B}" name="Join_Tables" displayName="Join_Tables" ref="A1:DH69" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:DH69" xr:uid="{614BD53E-D727-4FBD-9650-A46FA3EA31B6}">
     <filterColumn colId="90">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="110">
+  <tableColumns count="112">
     <tableColumn id="89" xr3:uid="{C714981E-DBEF-4D25-89ED-4A811828C0A4}" uniqueName="89" name="FID" queryTableFieldId="89"/>
     <tableColumn id="90" xr3:uid="{8B1C425E-14D6-4CCD-A8E6-DCB5742D376E}" uniqueName="90" name="OBJECTID_12_13" queryTableFieldId="90"/>
     <tableColumn id="91" xr3:uid="{3EA3FF43-8FF0-4823-B28B-621E921A9854}" uniqueName="91" name="DEPCODE" queryTableFieldId="91"/>
     <tableColumn id="92" xr3:uid="{5EB13421-DD0E-49B9-A63F-246CCD1A6AF8}" uniqueName="92" name="COUNTY" queryTableFieldId="92"/>
-    <tableColumn id="5" xr3:uid="{AF743547-44EF-4E06-AE10-2614A2A9B243}" uniqueName="5" name="COUNTYNAME" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{AF743547-44EF-4E06-AE10-2614A2A9B243}" uniqueName="5" name="COUNTYNAME" queryTableFieldId="5" dataDxfId="15"/>
     <tableColumn id="93" xr3:uid="{F9FEBCFC-CDAC-4B95-986E-87C210DCECC9}" uniqueName="93" name="County_1" queryTableFieldId="93"/>
-    <tableColumn id="7" xr3:uid="{88D79A27-C4F2-4C8A-8CD6-EA9AD8F57789}" uniqueName="7" name="State" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{88D79A27-C4F2-4C8A-8CD6-EA9AD8F57789}" uniqueName="7" name="State" queryTableFieldId="7" dataDxfId="14"/>
     <tableColumn id="8" xr3:uid="{1063823D-51F5-42A0-A4A4-A4DE3F21D5BB}" uniqueName="8" name="PUIsTotal" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{F871C13A-628E-409F-8DF7-4F4014C8DFA4}" uniqueName="9" name="Age_0_4" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{DC44C999-060D-4758-A1B7-98C95EF01CEB}" uniqueName="10" name="Age_5_14" queryTableFieldId="10"/>
@@ -1632,7 +1646,7 @@
     <tableColumn id="17" xr3:uid="{D6FCFECF-3393-4400-81C8-3E205A360D0C}" uniqueName="17" name="Age_75_84" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{C649098C-0595-4B4D-A0EE-D46C2A235E96}" uniqueName="18" name="Age_85plus" queryTableFieldId="18"/>
     <tableColumn id="19" xr3:uid="{40389D3E-3B38-48A1-8C56-0A70C9713731}" uniqueName="19" name="Age_Unkn" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{044C023C-9092-4A50-8007-72395305E6B0}" uniqueName="20" name="PUIAgeRange" queryTableFieldId="20" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{044C023C-9092-4A50-8007-72395305E6B0}" uniqueName="20" name="PUIAgeRange" queryTableFieldId="20" dataDxfId="13"/>
     <tableColumn id="21" xr3:uid="{8B21FE82-3B8D-4F5C-A736-11B2C5B042DC}" uniqueName="21" name="PUIAgeMedian" queryTableFieldId="21"/>
     <tableColumn id="22" xr3:uid="{7C8A4915-0134-488B-B837-02548D656E6A}" uniqueName="22" name="PUIFemale" queryTableFieldId="22"/>
     <tableColumn id="23" xr3:uid="{DD66E89F-84B6-41AB-8B67-1874425EFBDB}" uniqueName="23" name="PUIMale" queryTableFieldId="23"/>
@@ -1669,7 +1683,7 @@
     <tableColumn id="54" xr3:uid="{4ADD6E6A-8A40-4783-8478-083A269D26A3}" uniqueName="54" name="C_Age_75_84" queryTableFieldId="54"/>
     <tableColumn id="55" xr3:uid="{786ABCB9-4C1D-42C4-AF6F-97091A3B3D6D}" uniqueName="55" name="C_Age_85plus" queryTableFieldId="55"/>
     <tableColumn id="56" xr3:uid="{1BF5A86B-0BD9-4BEA-A9A8-926B11B43702}" uniqueName="56" name="C_Age_Unkn" queryTableFieldId="56"/>
-    <tableColumn id="57" xr3:uid="{47EAE9C1-6ACC-40F3-A1FE-2245E2416F1A}" uniqueName="57" name="C_AgeRange" queryTableFieldId="57" dataDxfId="2"/>
+    <tableColumn id="57" xr3:uid="{47EAE9C1-6ACC-40F3-A1FE-2245E2416F1A}" uniqueName="57" name="C_AgeRange" queryTableFieldId="57" dataDxfId="12"/>
     <tableColumn id="58" xr3:uid="{B5826B0E-471D-40E2-BE4B-23A08F275316}" uniqueName="58" name="C_AgeMedian" queryTableFieldId="58"/>
     <tableColumn id="59" xr3:uid="{E8629F1F-38C5-47F6-9A8F-F08B0996A128}" uniqueName="59" name="C_RaceWhite" queryTableFieldId="59"/>
     <tableColumn id="60" xr3:uid="{8F0D8B07-5C86-427C-9EE5-E2F2AC9FAC74}" uniqueName="60" name="C_RaceBlack" queryTableFieldId="60"/>
@@ -1701,8 +1715,8 @@
     <tableColumn id="86" xr3:uid="{64CE6F7B-038C-43EB-AFAA-027E28DBD7C9}" uniqueName="86" name="Chart_MedAge" queryTableFieldId="86"/>
     <tableColumn id="87" xr3:uid="{0FF30198-D865-4479-A411-0AE2606D3F93}" uniqueName="87" name="SHAPE_Length" queryTableFieldId="87"/>
     <tableColumn id="88" xr3:uid="{FAD39ECF-F722-4B69-93CC-997EB51DD7E5}" uniqueName="88" name="SHAPE_Area" queryTableFieldId="88"/>
-    <tableColumn id="1" xr3:uid="{30B4E169-BD61-495A-915E-CB1F05644524}" uniqueName="1" name="Florida Census By County Data - Original.STNAME" queryTableFieldId="121" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00010DE7-BD33-468A-B2A7-32F19B335DE5}" uniqueName="2" name="Florida Census By County Data - Original.CTYNAME" queryTableFieldId="122" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{30B4E169-BD61-495A-915E-CB1F05644524}" uniqueName="1" name="Florida Census By County Data - Original.STNAME" queryTableFieldId="121" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00010DE7-BD33-468A-B2A7-32F19B335DE5}" uniqueName="2" name="Florida Census By County Data - Original.CTYNAME" queryTableFieldId="122" dataDxfId="10"/>
     <tableColumn id="96" xr3:uid="{9521E073-D662-4730-A1C5-88BD7F9DB3FF}" uniqueName="96" name="Florida Census By County Data - Original._County" queryTableFieldId="96"/>
     <tableColumn id="3" xr3:uid="{1E0E50C9-AD93-4A23-92D9-6F0E1E274DD6}" uniqueName="3" name="Florida Census By County Data - Original.YEAR" queryTableFieldId="123"/>
     <tableColumn id="4" xr3:uid="{9A4ADD71-331D-4925-BB3A-8417FA607B82}" uniqueName="4" name="Florida Census By County Data - Original.AGEGRP" queryTableFieldId="124"/>
@@ -1723,6 +1737,12 @@
     <tableColumn id="113" xr3:uid="{901F2560-CC31-469E-95DC-220ADDB4EBCF}" uniqueName="113" name="Florida Census By County Data - Original.TOT_MIXED_RACE_FEMALE" queryTableFieldId="113"/>
     <tableColumn id="114" xr3:uid="{8EF23553-2A41-4438-A051-0C4FC55753B0}" uniqueName="114" name="Florida Census By County Data - Original.TOT_H_MALE" queryTableFieldId="114"/>
     <tableColumn id="115" xr3:uid="{575D2BEF-ACAC-45DC-822B-DE2201F03CA1}" uniqueName="115" name="Florida Census By County Data - Original.TOT_H_FEMALE" queryTableFieldId="115"/>
+    <tableColumn id="6" xr3:uid="{2A3FCBEB-D9FD-4B7F-A220-0D5BE88092BB}" uniqueName="6" name="_Deaths_Per_100k" queryTableFieldId="129" dataDxfId="1">
+      <calculatedColumnFormula>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="94" xr3:uid="{AB99D800-C058-4032-BA67-48C366096287}" uniqueName="94" name="_Positives_Per_100k" queryTableFieldId="130" dataDxfId="0">
+      <calculatedColumnFormula>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1732,9 +1752,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C5B782B-F104-4D1D-82A7-822EB307BB3D}" name="Florida_COVID19_Cases_by_County" displayName="Florida_COVID19_Cases_by_County" ref="A1:CF69" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:CF69" xr:uid="{B952CE33-62D8-41C3-BD62-9873AAD114DE}"/>
   <tableColumns count="84">
-    <tableColumn id="5" xr3:uid="{3ADB59A6-B612-4190-BB3C-6BE37E7F27A7}" uniqueName="5" name="COUNTYNAME" queryTableFieldId="5" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{CF29D1BD-BE90-4C98-958F-C673F34F5F56}" uniqueName="6" name="County_1" queryTableFieldId="6" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{0EFACA1D-123F-4030-AC3A-23417806D52B}" uniqueName="7" name="State" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{3ADB59A6-B612-4190-BB3C-6BE37E7F27A7}" uniqueName="5" name="COUNTYNAME" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{CF29D1BD-BE90-4C98-958F-C673F34F5F56}" uniqueName="6" name="County_1" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{0EFACA1D-123F-4030-AC3A-23417806D52B}" uniqueName="7" name="State" queryTableFieldId="7" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{23150429-7658-46C8-BCF5-D725F87B1D1A}" uniqueName="8" name="PUIsTotal" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{B5F1EA5C-629C-4877-9B5E-C0045D62E891}" uniqueName="9" name="Age_0_4" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{AC5C68BD-8984-467F-BC9C-8770EBF30655}" uniqueName="10" name="Age_5_14" queryTableFieldId="10"/>
@@ -1747,7 +1767,7 @@
     <tableColumn id="17" xr3:uid="{6EA7E6AB-F7FD-4745-A4C6-B43F7B82E27B}" uniqueName="17" name="Age_75_84" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{871653DB-404B-4433-B5FA-202EE8C43D08}" uniqueName="18" name="Age_85plus" queryTableFieldId="18"/>
     <tableColumn id="19" xr3:uid="{D96A1B79-C233-4512-A631-E838D4822FB8}" uniqueName="19" name="Age_Unkn" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{620DD057-D670-4A50-90F0-2EDF799A58BC}" uniqueName="20" name="PUIAgeRange" queryTableFieldId="20" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{620DD057-D670-4A50-90F0-2EDF799A58BC}" uniqueName="20" name="PUIAgeRange" queryTableFieldId="20" dataDxfId="6"/>
     <tableColumn id="21" xr3:uid="{41E245EC-D24A-4442-B649-7A59C92C106C}" uniqueName="21" name="PUIAgeMedian" queryTableFieldId="21"/>
     <tableColumn id="22" xr3:uid="{DE52B832-A31D-4820-A556-2C66123D57FE}" uniqueName="22" name="PUIFemale" queryTableFieldId="22"/>
     <tableColumn id="23" xr3:uid="{1346A217-9EE7-4605-9BC8-D9F99CC3D69F}" uniqueName="23" name="PUIMale" queryTableFieldId="23"/>
@@ -1784,7 +1804,7 @@
     <tableColumn id="54" xr3:uid="{9750B65E-3BB1-4884-8993-1C446CC4A106}" uniqueName="54" name="C_Age_75_84" queryTableFieldId="54"/>
     <tableColumn id="55" xr3:uid="{CC82630E-263C-4F58-AEF5-7461605B3AD7}" uniqueName="55" name="C_Age_85plus" queryTableFieldId="55"/>
     <tableColumn id="56" xr3:uid="{5D9DC980-D818-4B5F-B9D7-9ED776E99211}" uniqueName="56" name="C_Age_Unkn" queryTableFieldId="56"/>
-    <tableColumn id="57" xr3:uid="{84758CB1-CDC6-4605-940F-E9D7AC40A4A6}" uniqueName="57" name="C_AgeRange" queryTableFieldId="57" dataDxfId="9"/>
+    <tableColumn id="57" xr3:uid="{84758CB1-CDC6-4605-940F-E9D7AC40A4A6}" uniqueName="57" name="C_AgeRange" queryTableFieldId="57" dataDxfId="5"/>
     <tableColumn id="58" xr3:uid="{C9E3E8EB-DFA1-456C-B25E-F451E30E1026}" uniqueName="58" name="C_AgeMedian" queryTableFieldId="58"/>
     <tableColumn id="59" xr3:uid="{54B34617-E727-4E4E-9D0D-66A010ED1A3B}" uniqueName="59" name="C_RaceWhite" queryTableFieldId="59"/>
     <tableColumn id="60" xr3:uid="{5A9EE1FE-88B9-4A90-9278-37D66AA47165}" uniqueName="60" name="C_RaceBlack" queryTableFieldId="60"/>
@@ -1825,9 +1845,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F701379-698D-43FD-B985-C9F6943A5FE2}" name="Florida_Census_By_County_Data___Original" displayName="Florida_Census_By_County_Data___Original" ref="A1:V68" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:V68" xr:uid="{3CD17982-0EFB-4C46-A810-85D1CB9FBAA5}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{C0226F78-BBF4-4781-A130-86985A61B8EB}" uniqueName="1" name="STNAME" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{4DBEDF87-D03C-4761-872D-C08B125E65F3}" uniqueName="2" name="CTYNAME" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{917BD78C-E06A-42A1-9C25-F1A8E6870378}" uniqueName="22" name="_County" queryTableFieldId="22" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C0226F78-BBF4-4781-A130-86985A61B8EB}" uniqueName="1" name="STNAME" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4DBEDF87-D03C-4761-872D-C08B125E65F3}" uniqueName="2" name="CTYNAME" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{917BD78C-E06A-42A1-9C25-F1A8E6870378}" uniqueName="22" name="_County" queryTableFieldId="22" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{A52A3C3A-0855-4B5E-BF04-113C839EAF8C}" uniqueName="3" name="YEAR" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{1CCC0CC1-F2BE-428E-8C5A-32F44D2D149F}" uniqueName="4" name="AGEGRP" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{E8EF5C6F-A00D-437D-AC2A-BEC2D2B9324D}" uniqueName="5" name="TOT_POP" queryTableFieldId="5"/>
@@ -2149,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70329D2-6434-485B-B129-1AB60644866A}">
-  <dimension ref="A1:DF69"/>
+  <dimension ref="A1:DH69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="DF1" workbookViewId="0">
-      <selection activeCell="DM1" sqref="DM1"/>
+      <selection activeCell="DH1" sqref="DH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2255,10 +2275,11 @@
     <col min="108" max="108" width="61.1796875" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="49.26953125" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="51.1796875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="54.1796875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>367</v>
       </c>
@@ -2589,8 +2610,14 @@
       <c r="DF1" t="s">
         <v>388</v>
       </c>
+      <c r="DG1" t="s">
+        <v>395</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2921,8 +2948,16 @@
       <c r="DF2">
         <v>466</v>
       </c>
+      <c r="DG2">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>143</v>
+      </c>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>66</v>
       </c>
@@ -3253,8 +3288,16 @@
       <c r="DF3">
         <v>14306</v>
       </c>
+      <c r="DG3">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="DH3">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>201</v>
+      </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3585,8 +3628,16 @@
       <c r="DF4">
         <v>3666</v>
       </c>
+      <c r="DG4">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>9</v>
+      </c>
+      <c r="DH4">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>257</v>
+      </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>17</v>
       </c>
@@ -3917,8 +3968,16 @@
       <c r="DF5">
         <v>331</v>
       </c>
+      <c r="DG5">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>15</v>
+      </c>
+      <c r="DH5">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>106</v>
+      </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4249,8 +4308,16 @@
       <c r="DF6">
         <v>251</v>
       </c>
+      <c r="DG6">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>250</v>
+      </c>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>15</v>
       </c>
@@ -4581,8 +4648,16 @@
       <c r="DF7">
         <v>6029</v>
       </c>
+      <c r="DG7">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH7">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>79</v>
+      </c>
     </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4913,8 +4988,16 @@
       <c r="DF8">
         <v>9934</v>
       </c>
+      <c r="DG8">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH8">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>161</v>
+      </c>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40</v>
       </c>
@@ -5245,8 +5328,16 @@
       <c r="DF9">
         <v>383</v>
       </c>
+      <c r="DG9">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>8</v>
+      </c>
+      <c r="DH9">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>188</v>
+      </c>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -5577,8 +5668,16 @@
       <c r="DF10">
         <v>289</v>
       </c>
+      <c r="DG10">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>35</v>
+      </c>
+      <c r="DH10">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>453</v>
+      </c>
     </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>42</v>
       </c>
@@ -5909,8 +6008,16 @@
       <c r="DF11">
         <v>32636</v>
       </c>
+      <c r="DG11">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH11">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>92</v>
+      </c>
     </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -6241,8 +6348,16 @@
       <c r="DF12">
         <v>169844</v>
       </c>
+      <c r="DG12">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>29</v>
+      </c>
+      <c r="DH12">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>595</v>
+      </c>
     </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>62</v>
       </c>
@@ -6573,8 +6688,16 @@
       <c r="DF13">
         <v>305131</v>
       </c>
+      <c r="DG13">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>19</v>
+      </c>
+      <c r="DH13">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>458</v>
+      </c>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7</v>
       </c>
@@ -6905,8 +7028,16 @@
       <c r="DF14">
         <v>31209</v>
       </c>
+      <c r="DG14">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>12</v>
+      </c>
+      <c r="DH14">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>275</v>
+      </c>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8</v>
       </c>
@@ -7237,8 +7368,16 @@
       <c r="DF15">
         <v>43075</v>
       </c>
+      <c r="DG15">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH15">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>97</v>
+      </c>
     </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>56</v>
       </c>
@@ -7569,8 +7708,16 @@
       <c r="DF16">
         <v>6917</v>
       </c>
+      <c r="DG16">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>40</v>
+      </c>
+      <c r="DH16">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>288</v>
+      </c>
     </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
@@ -7901,8 +8048,16 @@
       <c r="DF17">
         <v>2291</v>
       </c>
+      <c r="DG17">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>9</v>
+      </c>
+      <c r="DH17">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>663</v>
+      </c>
     </row>
-    <row r="18" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>32</v>
       </c>
@@ -8233,8 +8388,16 @@
       <c r="DF18">
         <v>4327</v>
       </c>
+      <c r="DG18">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>9</v>
+      </c>
+      <c r="DH18">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>97</v>
+      </c>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10</v>
       </c>
@@ -8565,8 +8728,16 @@
       <c r="DF19">
         <v>9938</v>
       </c>
+      <c r="DG19">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH19">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>161</v>
+      </c>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>22</v>
       </c>
@@ -8897,8 +9068,16 @@
       <c r="DF20">
         <v>11066</v>
       </c>
+      <c r="DG20">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>15</v>
+      </c>
+      <c r="DH20">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>202</v>
+      </c>
     </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>11</v>
       </c>
@@ -9229,8 +9408,16 @@
       <c r="DF21">
         <v>233</v>
       </c>
+      <c r="DG21">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>28</v>
+      </c>
+      <c r="DH21">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>224</v>
+      </c>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>47</v>
       </c>
@@ -9561,8 +9748,16 @@
       <c r="DF22">
         <v>51412</v>
       </c>
+      <c r="DG22">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>16</v>
+      </c>
+      <c r="DH22">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>668</v>
+      </c>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>12</v>
       </c>
@@ -9893,8 +10088,16 @@
       <c r="DF23">
         <v>363</v>
       </c>
+      <c r="DG23">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>17</v>
+      </c>
+      <c r="DH23">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>427</v>
+      </c>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>16</v>
       </c>
@@ -10225,8 +10428,16 @@
       <c r="DF24">
         <v>2106</v>
       </c>
+      <c r="DG24">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH24">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>259</v>
+      </c>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>13</v>
       </c>
@@ -10557,8 +10768,16 @@
       <c r="DF25">
         <v>175</v>
       </c>
+      <c r="DG25">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>12</v>
+      </c>
+      <c r="DH25">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>2590</v>
+      </c>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>14</v>
       </c>
@@ -10889,8 +11108,16 @@
       <c r="DF26">
         <v>531</v>
       </c>
+      <c r="DG26">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>14</v>
+      </c>
+      <c r="DH26">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>1894</v>
+      </c>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11221,8 +11448,16 @@
       <c r="DF27">
         <v>246</v>
       </c>
+      <c r="DG27">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>18</v>
+      </c>
+      <c r="DH27">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>360</v>
+      </c>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>36</v>
       </c>
@@ -11553,8 +11788,16 @@
       <c r="DF28">
         <v>47968</v>
       </c>
+      <c r="DG28">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>6</v>
+      </c>
+      <c r="DH28">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>210</v>
+      </c>
     </row>
-    <row r="29" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>63</v>
       </c>
@@ -11885,8 +12128,16 @@
       <c r="DF29">
         <v>8370</v>
       </c>
+      <c r="DG29">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>13</v>
+      </c>
+      <c r="DH29">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>313</v>
+      </c>
     </row>
-    <row r="30" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>59</v>
       </c>
@@ -12217,8 +12468,16 @@
       <c r="DF30">
         <v>6111</v>
       </c>
+      <c r="DG30">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>5</v>
+      </c>
+      <c r="DH30">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>185</v>
+      </c>
     </row>
-    <row r="31" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>18</v>
       </c>
@@ -12549,8 +12808,16 @@
       <c r="DF31">
         <v>232</v>
       </c>
+      <c r="DG31">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH31">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>160</v>
+      </c>
     </row>
-    <row r="32" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>65</v>
       </c>
@@ -12881,8 +13148,16 @@
       <c r="DF32">
         <v>185</v>
       </c>
+      <c r="DG32">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH32">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="33" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>19</v>
       </c>
@@ -13213,8 +13488,16 @@
       <c r="DF33">
         <v>10356</v>
       </c>
+      <c r="DG33">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>12</v>
+      </c>
+      <c r="DH33">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>728</v>
+      </c>
     </row>
-    <row r="34" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>20</v>
       </c>
@@ -13545,8 +13828,16 @@
       <c r="DF34">
         <v>211379</v>
       </c>
+      <c r="DG34">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>7</v>
+      </c>
+      <c r="DH34">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>252</v>
+      </c>
     </row>
-    <row r="35" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>21</v>
       </c>
@@ -13877,8 +14168,16 @@
       <c r="DF35">
         <v>32590</v>
       </c>
+      <c r="DG35">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>30</v>
+      </c>
+      <c r="DH35">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>349</v>
+      </c>
     </row>
-    <row r="36" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>55</v>
       </c>
@@ -14209,8 +14508,16 @@
       <c r="DF36">
         <v>1223</v>
       </c>
+      <c r="DG36">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>8</v>
+      </c>
+      <c r="DH36">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>831</v>
+      </c>
     </row>
-    <row r="37" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>38</v>
       </c>
@@ -14541,8 +14848,16 @@
       <c r="DF37">
         <v>158</v>
       </c>
+      <c r="DG37">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH37">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="38" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>23</v>
       </c>
@@ -14873,8 +15188,16 @@
       <c r="DF38">
         <v>5445</v>
       </c>
+      <c r="DG38">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH38">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>720</v>
+      </c>
     </row>
-    <row r="39" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>24</v>
       </c>
@@ -15205,8 +15528,16 @@
       <c r="DF39">
         <v>24405</v>
       </c>
+      <c r="DG39">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH39">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>87</v>
+      </c>
     </row>
-    <row r="40" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>25</v>
       </c>
@@ -15537,8 +15868,16 @@
       <c r="DF40">
         <v>39858</v>
       </c>
+      <c r="DG40">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>9</v>
+      </c>
+      <c r="DH40">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>170</v>
+      </c>
     </row>
-    <row r="41" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>60</v>
       </c>
@@ -15869,8 +16208,16 @@
       <c r="DF41">
         <v>9771</v>
       </c>
+      <c r="DG41">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>49</v>
+      </c>
+      <c r="DH41">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>1536</v>
+      </c>
     </row>
-    <row r="42" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>33</v>
       </c>
@@ -16201,8 +16548,16 @@
       <c r="DF42">
         <v>13544</v>
       </c>
+      <c r="DG42">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH42">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>74</v>
+      </c>
     </row>
-    <row r="43" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>27</v>
       </c>
@@ -16533,8 +16888,16 @@
       <c r="DF43">
         <v>28482</v>
       </c>
+      <c r="DG43">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>5</v>
+      </c>
+      <c r="DH43">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>131</v>
+      </c>
     </row>
-    <row r="44" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>45</v>
       </c>
@@ -16865,8 +17228,16 @@
       <c r="DF44">
         <v>10266</v>
       </c>
+      <c r="DG44">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>9</v>
+      </c>
+      <c r="DH44">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>163</v>
+      </c>
     </row>
-    <row r="45" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>28</v>
       </c>
@@ -17197,8 +17568,16 @@
       <c r="DF45">
         <v>1702</v>
       </c>
+      <c r="DG45">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH45">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>246</v>
+      </c>
     </row>
-    <row r="46" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>29</v>
       </c>
@@ -17529,8 +17908,16 @@
       <c r="DF46">
         <v>2938</v>
       </c>
+      <c r="DG46">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>14</v>
+      </c>
+      <c r="DH46">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>207</v>
+      </c>
     </row>
-    <row r="47" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>30</v>
       </c>
@@ -17861,8 +18248,16 @@
       <c r="DF47">
         <v>53200</v>
       </c>
+      <c r="DG47">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH47">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>163</v>
+      </c>
     </row>
-    <row r="48" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>61</v>
       </c>
@@ -18193,8 +18588,16 @@
       <c r="DF48">
         <v>9967</v>
       </c>
+      <c r="DG48">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>7</v>
+      </c>
+      <c r="DH48">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>131</v>
+      </c>
     </row>
-    <row r="49" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>31</v>
       </c>
@@ -18525,8 +18928,16 @@
       <c r="DF49">
         <v>226665</v>
       </c>
+      <c r="DG49">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="DH49">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>227</v>
+      </c>
     </row>
-    <row r="50" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>52</v>
       </c>
@@ -18857,8 +19268,16 @@
       <c r="DF50">
         <v>737</v>
       </c>
+      <c r="DG50">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH50">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>661</v>
+      </c>
     </row>
-    <row r="51" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>37</v>
       </c>
@@ -19189,8 +19608,16 @@
       <c r="DF51">
         <v>526</v>
       </c>
+      <c r="DG51">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH51">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>149</v>
+      </c>
     </row>
-    <row r="52" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>34</v>
       </c>
@@ -19521,8 +19948,16 @@
       <c r="DF52">
         <v>49493</v>
       </c>
+      <c r="DG52">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>11</v>
+      </c>
+      <c r="DH52">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>230</v>
+      </c>
     </row>
-    <row r="53" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>35</v>
       </c>
@@ -19853,8 +20288,16 @@
       <c r="DF53">
         <v>1930</v>
       </c>
+      <c r="DG53">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>41</v>
+      </c>
+      <c r="DH53">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>444</v>
+      </c>
     </row>
-    <row r="54" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>46</v>
       </c>
@@ -20185,8 +20628,16 @@
       <c r="DF54">
         <v>81730</v>
       </c>
+      <c r="DG54">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>18</v>
+      </c>
+      <c r="DH54">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>376</v>
+      </c>
     </row>
-    <row r="55" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>39</v>
       </c>
@@ -20517,8 +20968,16 @@
       <c r="DF55">
         <v>250</v>
       </c>
+      <c r="DG55">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>7</v>
+      </c>
+      <c r="DH55">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>255</v>
+      </c>
     </row>
-    <row r="56" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>41</v>
       </c>
@@ -20849,8 +21308,16 @@
       <c r="DF56">
         <v>522</v>
       </c>
+      <c r="DG56">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>4</v>
+      </c>
+      <c r="DH56">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>108</v>
+      </c>
     </row>
-    <row r="57" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>43</v>
       </c>
@@ -21181,8 +21648,16 @@
       <c r="DF57">
         <v>82475</v>
       </c>
+      <c r="DG57">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>11</v>
+      </c>
+      <c r="DH57">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>208</v>
+      </c>
     </row>
-    <row r="58" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>44</v>
       </c>
@@ -21513,8 +21988,16 @@
       <c r="DF58">
         <v>102949</v>
       </c>
+      <c r="DG58">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>6</v>
+      </c>
+      <c r="DH58">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>228</v>
+      </c>
     </row>
-    <row r="59" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>49</v>
       </c>
@@ -21845,8 +22328,16 @@
       <c r="DF59">
         <v>9065</v>
       </c>
+      <c r="DG59">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>6</v>
+      </c>
+      <c r="DH59">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>172</v>
+      </c>
     </row>
-    <row r="60" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>54</v>
       </c>
@@ -22177,8 +22668,16 @@
       <c r="DF60">
         <v>1885</v>
       </c>
+      <c r="DG60">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>2</v>
+      </c>
+      <c r="DH60">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>108</v>
+      </c>
     </row>
-    <row r="61" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>64</v>
       </c>
@@ -22509,8 +23008,16 @@
       <c r="DF61">
         <v>4491</v>
       </c>
+      <c r="DG61">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="DH61">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>441</v>
+      </c>
     </row>
-    <row r="62" spans="1:110" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>48</v>
       </c>
@@ -22777,8 +23284,16 @@
       </c>
       <c r="CK62" s="1"/>
       <c r="CL62" s="1"/>
+      <c r="DG62" t="e">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DH62" t="e">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="63" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>50</v>
       </c>
@@ -23109,8 +23624,16 @@
       <c r="DF63">
         <v>4849</v>
       </c>
+      <c r="DG63">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>6</v>
+      </c>
+      <c r="DH63">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>163</v>
+      </c>
     </row>
-    <row r="64" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>51</v>
       </c>
@@ -23441,8 +23964,16 @@
       <c r="DF64">
         <v>2050</v>
       </c>
+      <c r="DG64">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>13</v>
+      </c>
+      <c r="DH64">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>208</v>
+      </c>
     </row>
-    <row r="65" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>53</v>
       </c>
@@ -23773,8 +24304,16 @@
       <c r="DF65">
         <v>388</v>
       </c>
+      <c r="DG65">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>37</v>
+      </c>
+      <c r="DH65">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>370</v>
+      </c>
     </row>
-    <row r="66" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>67</v>
       </c>
@@ -24105,8 +24644,16 @@
       <c r="DF66">
         <v>9057</v>
       </c>
+      <c r="DG66">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>3</v>
+      </c>
+      <c r="DH66">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>121</v>
+      </c>
     </row>
-    <row r="67" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>57</v>
       </c>
@@ -24437,8 +24984,16 @@
       <c r="DF67">
         <v>20205</v>
       </c>
+      <c r="DG67">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>22</v>
+      </c>
+      <c r="DH67">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>180</v>
+      </c>
     </row>
-    <row r="68" spans="1:110" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>58</v>
       </c>
@@ -24705,8 +25260,16 @@
       </c>
       <c r="CK68" s="1"/>
       <c r="CL68" s="1"/>
+      <c r="DG68" t="e">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DH68" t="e">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="69" spans="1:110" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -24973,6 +25536,14 @@
       </c>
       <c r="CK69" s="1"/>
       <c r="CL69" s="1"/>
+      <c r="DG69" t="e">
+        <f>ROUNDUP((Join_Tables[[#This Row],[Deaths]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]])*100000,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DH69" t="e">
+        <f>ROUNDUP(Join_Tables[[#This Row],[TPositive]]/Join_Tables[[#This Row],[Florida Census By County Data - Original.TOT_POP]]*100000,0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/MDS 561/Florida Project Data 1st Iteration.xlsx
+++ b/MDS 561/Florida Project Data 1st Iteration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/886d1fcb0e1fdeb1/Documents/GitHub/DataScienceProjects/MDS 561/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{DE0EABDA-8300-4043-926D-FEA4E568EF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63CD8876-1636-46B4-8CC3-8DD6EC2DED61}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{DE0EABDA-8300-4043-926D-FEA4E568EF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4138F3A2-2383-4DFF-8490-DB312C5BD701}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B0AAE735-983E-4AB1-B980-C6F52A4E48D5}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{B0AAE735-983E-4AB1-B980-C6F52A4E48D5}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Iteration" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'Census Data'!$A$1:$V$68</definedName>
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">'1st Iteration'!$A$1:$CZ$69</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1805,6 +1805,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F701379-698D-43FD-B985-C9F6943A5FE2}" name="Florida_Census_By_County_Data___Original" displayName="Florida_Census_By_County_Data___Original" ref="A1:V68" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:V68" xr:uid="{3CD17982-0EFB-4C46-A810-85D1CB9FBAA5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V68">
+    <sortCondition ref="C1:C68"/>
+  </sortState>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{C0226F78-BBF4-4781-A130-86985A61B8EB}" uniqueName="1" name="STNAME" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{4DBEDF87-D03C-4761-872D-C08B125E65F3}" uniqueName="2" name="CTYNAME" queryTableFieldId="2" dataDxfId="1"/>
@@ -24288,8 +24291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE07934-EE5C-442A-AACB-F60865AE8F08}">
   <dimension ref="A1:CG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="BB1" sqref="BB1:CE1048576"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24641,7 +24644,7 @@
         <v>211</v>
       </c>
       <c r="F2">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.3959642739000993</v>
       </c>
       <c r="G2">
@@ -24899,7 +24902,7 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>3.6407766990291259</v>
       </c>
       <c r="G3">
@@ -25157,7 +25160,7 @@
         <v>38</v>
       </c>
       <c r="F4">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.1942174732872406</v>
       </c>
       <c r="G4">
@@ -25415,7 +25418,7 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.2303485987696514</v>
       </c>
       <c r="G5">
@@ -25673,7 +25676,7 @@
         <v>256</v>
       </c>
       <c r="F6">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.3249146051133425</v>
       </c>
       <c r="G6">
@@ -25931,7 +25934,7 @@
         <v>1146</v>
       </c>
       <c r="F7">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.2280325760822974</v>
       </c>
       <c r="G7">
@@ -26189,7 +26192,7 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.93984962406015038</v>
       </c>
       <c r="G8">
@@ -26447,7 +26450,7 @@
         <v>61</v>
       </c>
       <c r="F9">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.1211174416467562</v>
       </c>
       <c r="G9">
@@ -26705,7 +26708,7 @@
         <v>38</v>
       </c>
       <c r="F10">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.98752598752598764</v>
       </c>
       <c r="G10">
@@ -26963,7 +26966,7 @@
         <v>119</v>
       </c>
       <c r="F11">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.4517506404782237</v>
       </c>
       <c r="G11">
@@ -27221,7 +27224,7 @@
         <v>318</v>
       </c>
       <c r="F12">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.0914172969417955</v>
       </c>
       <c r="G12">
@@ -27479,7 +27482,7 @@
         <v>86</v>
       </c>
       <c r="F13">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.5443786982248522</v>
       </c>
       <c r="G13">
@@ -27737,7 +27740,7 @@
         <v>1681</v>
       </c>
       <c r="F14">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.0629687243110622</v>
       </c>
       <c r="G14">
@@ -27995,7 +27998,7 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.1258503401360542</v>
       </c>
       <c r="G15">
@@ -28253,7 +28256,7 @@
         <v>21</v>
       </c>
       <c r="F16">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.6086956521739131</v>
       </c>
       <c r="G16">
@@ -28511,7 +28514,7 @@
         <v>773</v>
       </c>
       <c r="F17">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.6295983978075259</v>
       </c>
       <c r="G17">
@@ -28769,7 +28772,7 @@
         <v>442</v>
       </c>
       <c r="F18">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.9496162829496164</v>
       </c>
       <c r="G18">
@@ -29027,7 +29030,7 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.0983263598326358</v>
       </c>
       <c r="G19">
@@ -29285,7 +29288,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.43668122270742354</v>
       </c>
       <c r="G20">
@@ -29543,7 +29546,7 @@
         <v>49</v>
       </c>
       <c r="F21">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.6978516978516978</v>
       </c>
       <c r="G21">
@@ -29801,7 +29804,7 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.7673048600883652</v>
       </c>
       <c r="G22">
@@ -30059,7 +30062,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.75757575757575757</v>
       </c>
       <c r="G23">
@@ -30317,7 +30320,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.824817518248175</v>
       </c>
       <c r="G24">
@@ -30575,7 +30578,7 @@
         <v>13</v>
       </c>
       <c r="F25">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.66564260112647211</v>
       </c>
       <c r="G25">
@@ -30833,7 +30836,7 @@
         <v>24</v>
       </c>
       <c r="F26">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.572347266881029</v>
       </c>
       <c r="G26">
@@ -31091,7 +31094,7 @@
         <v>75</v>
       </c>
       <c r="F27">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>3.1914893617021276</v>
       </c>
       <c r="G27">
@@ -31349,7 +31352,7 @@
         <v>66</v>
       </c>
       <c r="F28">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.8911174785100286</v>
       </c>
       <c r="G28">
@@ -31607,7 +31610,7 @@
         <v>53</v>
       </c>
       <c r="F29">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.4484831921289969</v>
       </c>
       <c r="G29">
@@ -31865,7 +31868,7 @@
         <v>1227</v>
       </c>
       <c r="F30">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.3372764157951882</v>
       </c>
       <c r="G30">
@@ -32123,7 +32126,7 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.5706806282722512</v>
       </c>
       <c r="G31">
@@ -32381,7 +32384,7 @@
         <v>52</v>
       </c>
       <c r="F32">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.98972211648267994</v>
       </c>
       <c r="G32">
@@ -32639,7 +32642,7 @@
         <v>24</v>
       </c>
       <c r="F33">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.80294412847106056</v>
       </c>
       <c r="G33">
@@ -32897,7 +32900,7 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.1543985637342908</v>
       </c>
       <c r="G34">
@@ -33155,7 +33158,7 @@
         <v>5</v>
       </c>
       <c r="F35">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.4534883720930232</v>
       </c>
       <c r="G35">
@@ -33413,7 +33416,7 @@
         <v>208</v>
       </c>
       <c r="F36">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.3875917278185457</v>
       </c>
       <c r="G36">
@@ -33671,7 +33674,7 @@
         <v>299</v>
       </c>
       <c r="F37">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.1826595997152123</v>
       </c>
       <c r="G37">
@@ -33929,7 +33932,7 @@
         <v>187</v>
       </c>
       <c r="F38">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.4862501986965506</v>
       </c>
       <c r="G38">
@@ -34187,7 +34190,7 @@
         <v>26</v>
       </c>
       <c r="F39">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.5494636471990464</v>
       </c>
       <c r="G39">
@@ -34445,7 +34448,7 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.13550135501355012</v>
       </c>
       <c r="G40">
@@ -34703,7 +34706,7 @@
         <v>42</v>
       </c>
       <c r="F41">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>4.2</v>
       </c>
       <c r="G41">
@@ -34961,7 +34964,7 @@
         <v>258</v>
       </c>
       <c r="F42">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.6985976693659885</v>
       </c>
       <c r="G42">
@@ -35219,7 +35222,7 @@
         <v>155</v>
       </c>
       <c r="F43">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.1211573236889694</v>
       </c>
       <c r="G43">
@@ -35477,7 +35480,7 @@
         <v>131</v>
       </c>
       <c r="F44">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.8461104847801577</v>
       </c>
       <c r="G44">
@@ -35735,7 +35738,7 @@
         <v>24</v>
       </c>
       <c r="F45">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.75140889167188474</v>
       </c>
       <c r="G45">
@@ -35993,7 +35996,7 @@
         <v>44</v>
       </c>
       <c r="F46">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.4057507987220448</v>
       </c>
       <c r="G46">
@@ -36251,7 +36254,7 @@
         <v>162</v>
       </c>
       <c r="F47">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.3872679045092835</v>
       </c>
       <c r="G47">
@@ -36509,7 +36512,7 @@
         <v>29</v>
       </c>
       <c r="F48">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.7890191239975324</v>
       </c>
       <c r="G48">
@@ -36767,7 +36770,7 @@
         <v>1097</v>
       </c>
       <c r="F49">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.7865867561317224</v>
       </c>
       <c r="G49">
@@ -37025,7 +37028,7 @@
         <v>168</v>
       </c>
       <c r="F50">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.2673506336753169</v>
       </c>
       <c r="G50">
@@ -37283,7 +37286,7 @@
         <v>1003</v>
       </c>
       <c r="F51">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.4938266088795555</v>
       </c>
       <c r="G51">
@@ -37541,7 +37544,7 @@
         <v>260</v>
       </c>
       <c r="F52">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.9429083843969512</v>
       </c>
       <c r="G52">
@@ -37799,7 +37802,7 @@
         <v>349</v>
       </c>
       <c r="F53">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.95090185820936191</v>
       </c>
       <c r="G53">
@@ -38057,7 +38060,7 @@
         <v>436</v>
       </c>
       <c r="F54">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.3579038451138392</v>
       </c>
       <c r="G54">
@@ -38315,7 +38318,7 @@
         <v>69</v>
       </c>
       <c r="F55">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.0222743259085583</v>
       </c>
       <c r="G55">
@@ -38573,7 +38576,7 @@
         <v>227</v>
       </c>
       <c r="F56">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>3.2965437118791754</v>
       </c>
       <c r="G56">
@@ -38831,7 +38834,7 @@
         <v>152</v>
       </c>
       <c r="F57">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.1793916821849781</v>
       </c>
       <c r="G57">
@@ -39089,7 +39092,7 @@
         <v>213</v>
       </c>
       <c r="F58">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.2811259473114398</v>
       </c>
       <c r="G58">
@@ -39347,7 +39350,7 @@
         <v>129</v>
       </c>
       <c r="F59">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.3316816351811707</v>
       </c>
       <c r="G59">
@@ -39605,7 +39608,7 @@
         <v>164</v>
       </c>
       <c r="F60">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.6722749056796167</v>
       </c>
       <c r="G60">
@@ -39863,7 +39866,7 @@
         <v>27</v>
       </c>
       <c r="F61">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.71884984025559107</v>
       </c>
       <c r="G61">
@@ -40121,7 +40124,7 @@
         <v>55</v>
       </c>
       <c r="F62">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>2.5906735751295336</v>
       </c>
       <c r="G62">
@@ -40379,7 +40382,7 @@
         <v>33</v>
       </c>
       <c r="F63">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>3.8194444444444446</v>
       </c>
       <c r="G63">
@@ -40637,7 +40640,7 @@
         <v>11</v>
       </c>
       <c r="F64">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.94501718213058417</v>
       </c>
       <c r="G64">
@@ -40895,7 +40898,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0</v>
       </c>
       <c r="G65">
@@ -41153,7 +41156,7 @@
         <v>170</v>
       </c>
       <c r="F66">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>0.84551875062170501</v>
       </c>
       <c r="G66">
@@ -41411,7 +41414,7 @@
         <v>13</v>
       </c>
       <c r="F67">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.0416666666666665</v>
       </c>
       <c r="G67">
@@ -41669,7 +41672,7 @@
         <v>51</v>
       </c>
       <c r="F68">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>3.2401524777636594</v>
       </c>
       <c r="G68">
@@ -41927,7 +41930,7 @@
         <v>12</v>
       </c>
       <c r="F69">
-        <f ca="1">(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
+        <f>(Florida_COVID19_Cases_by_County[[#This Row],[Age_0_4]]/Florida_COVID19_Cases_by_County[[#This Row],[PUIFLRes]])*100</f>
         <v>1.3377926421404682</v>
       </c>
       <c r="G69">
@@ -42181,8 +42184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3733BDF6-3136-4F42-943E-EB1C5B93EA82}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45956,10 +45959,10 @@
         <v>278</v>
       </c>
       <c r="B56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>11</v>
@@ -45968,55 +45971,55 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>254261</v>
+        <v>179349</v>
       </c>
       <c r="G56">
-        <v>124017</v>
+        <v>91404</v>
       </c>
       <c r="H56">
-        <v>130244</v>
+        <v>87945</v>
       </c>
       <c r="I56">
-        <v>110091</v>
+        <v>78732</v>
       </c>
       <c r="J56">
-        <v>115646</v>
+        <v>77385</v>
       </c>
       <c r="K56">
-        <v>6905</v>
+        <v>7331</v>
       </c>
       <c r="L56">
-        <v>7177</v>
+        <v>4257</v>
       </c>
       <c r="M56">
-        <v>440</v>
+        <v>828</v>
       </c>
       <c r="N56">
-        <v>363</v>
+        <v>746</v>
       </c>
       <c r="O56">
-        <v>3834</v>
+        <v>1411</v>
       </c>
       <c r="P56">
-        <v>4276</v>
+        <v>2449</v>
       </c>
       <c r="Q56">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="R56">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="S56">
-        <v>2622</v>
+        <v>2950</v>
       </c>
       <c r="T56">
-        <v>2689</v>
+        <v>2955</v>
       </c>
       <c r="U56">
-        <v>9257</v>
+        <v>5376</v>
       </c>
       <c r="V56">
-        <v>9057</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
@@ -46024,10 +46027,10 @@
         <v>278</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="D57">
         <v>11</v>
@@ -46036,55 +46039,55 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>321128</v>
+        <v>426718</v>
       </c>
       <c r="G57">
-        <v>156975</v>
+        <v>203342</v>
       </c>
       <c r="H57">
-        <v>164153</v>
+        <v>223376</v>
       </c>
       <c r="I57">
-        <v>116939</v>
+        <v>186012</v>
       </c>
       <c r="J57">
-        <v>120876</v>
+        <v>204550</v>
       </c>
       <c r="K57">
-        <v>32618</v>
+        <v>9874</v>
       </c>
       <c r="L57">
-        <v>34792</v>
+        <v>10507</v>
       </c>
       <c r="M57">
-        <v>926</v>
+        <v>680</v>
       </c>
       <c r="N57">
-        <v>879</v>
+        <v>682</v>
       </c>
       <c r="O57">
-        <v>2674</v>
+        <v>3400</v>
       </c>
       <c r="P57">
-        <v>3689</v>
+        <v>4204</v>
       </c>
       <c r="Q57">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="R57">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="S57">
-        <v>3649</v>
+        <v>3245</v>
       </c>
       <c r="T57">
-        <v>3741</v>
+        <v>3300</v>
       </c>
       <c r="U57">
-        <v>31568</v>
+        <v>19643</v>
       </c>
       <c r="V57">
-        <v>31209</v>
+        <v>20205</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
@@ -46092,10 +46095,10 @@
         <v>278</v>
       </c>
       <c r="B58" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D58">
         <v>11</v>
@@ -46104,55 +46107,55 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>179349</v>
+        <v>467832</v>
       </c>
       <c r="G58">
-        <v>91404</v>
+        <v>226010</v>
       </c>
       <c r="H58">
-        <v>87945</v>
+        <v>241822</v>
       </c>
       <c r="I58">
-        <v>78732</v>
+        <v>179102</v>
       </c>
       <c r="J58">
-        <v>77385</v>
+        <v>190196</v>
       </c>
       <c r="K58">
-        <v>7331</v>
+        <v>28594</v>
       </c>
       <c r="L58">
-        <v>4257</v>
+        <v>31864</v>
       </c>
       <c r="M58">
-        <v>828</v>
+        <v>1003</v>
       </c>
       <c r="N58">
-        <v>746</v>
+        <v>1046</v>
       </c>
       <c r="O58">
-        <v>1411</v>
+        <v>10928</v>
       </c>
       <c r="P58">
-        <v>2449</v>
+        <v>11869</v>
       </c>
       <c r="Q58">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="R58">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="S58">
-        <v>2950</v>
+        <v>6109</v>
       </c>
       <c r="T58">
-        <v>2955</v>
+        <v>6553</v>
       </c>
       <c r="U58">
-        <v>5376</v>
+        <v>49635</v>
       </c>
       <c r="V58">
-        <v>4849</v>
+        <v>53200</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
@@ -46160,10 +46163,10 @@
         <v>278</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>11</v>
@@ -46172,55 +46175,55 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>426718</v>
+        <v>254261</v>
       </c>
       <c r="G59">
-        <v>203342</v>
+        <v>124017</v>
       </c>
       <c r="H59">
-        <v>223376</v>
+        <v>130244</v>
       </c>
       <c r="I59">
-        <v>186012</v>
+        <v>110091</v>
       </c>
       <c r="J59">
-        <v>204550</v>
+        <v>115646</v>
       </c>
       <c r="K59">
-        <v>9874</v>
+        <v>6905</v>
       </c>
       <c r="L59">
-        <v>10507</v>
+        <v>7177</v>
       </c>
       <c r="M59">
-        <v>680</v>
+        <v>440</v>
       </c>
       <c r="N59">
-        <v>682</v>
+        <v>363</v>
       </c>
       <c r="O59">
-        <v>3400</v>
+        <v>3834</v>
       </c>
       <c r="P59">
-        <v>4204</v>
+        <v>4276</v>
       </c>
       <c r="Q59">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="R59">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="S59">
-        <v>3245</v>
+        <v>2622</v>
       </c>
       <c r="T59">
-        <v>3300</v>
+        <v>2689</v>
       </c>
       <c r="U59">
-        <v>19643</v>
+        <v>9257</v>
       </c>
       <c r="V59">
-        <v>20205</v>
+        <v>9057</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
@@ -46228,10 +46231,10 @@
         <v>278</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="D60">
         <v>11</v>
@@ -46240,55 +46243,55 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>467832</v>
+        <v>321128</v>
       </c>
       <c r="G60">
-        <v>226010</v>
+        <v>156975</v>
       </c>
       <c r="H60">
-        <v>241822</v>
+        <v>164153</v>
       </c>
       <c r="I60">
-        <v>179102</v>
+        <v>116939</v>
       </c>
       <c r="J60">
-        <v>190196</v>
+        <v>120876</v>
       </c>
       <c r="K60">
-        <v>28594</v>
+        <v>32618</v>
       </c>
       <c r="L60">
-        <v>31864</v>
+        <v>34792</v>
       </c>
       <c r="M60">
-        <v>1003</v>
+        <v>926</v>
       </c>
       <c r="N60">
-        <v>1046</v>
+        <v>879</v>
       </c>
       <c r="O60">
-        <v>10928</v>
+        <v>2674</v>
       </c>
       <c r="P60">
-        <v>11869</v>
+        <v>3689</v>
       </c>
       <c r="Q60">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="R60">
-        <v>294</v>
+        <v>176</v>
       </c>
       <c r="S60">
-        <v>6109</v>
+        <v>3649</v>
       </c>
       <c r="T60">
-        <v>6553</v>
+        <v>3741</v>
       </c>
       <c r="U60">
-        <v>49635</v>
+        <v>31568</v>
       </c>
       <c r="V60">
-        <v>53200</v>
+        <v>31209</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
